--- a/2020-07-15/web_tables/forecast_gdp_wide.xlsx
+++ b/2020-07-15/web_tables/forecast_gdp_wide.xlsx
@@ -387,49 +387,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>II квартал 2019</t>
+          <t>II квартал 2020</t>
         </is>
       </c>
       <c r="B2">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
       <c r="C2">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="D2">
         <v>0.016</v>
       </c>
       <c r="E2">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>III квартал 2019</t>
+          <t>III квартал 2020</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.017</v>
+        <v>0.014</v>
       </c>
       <c r="C3">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="D3">
         <v>0.016</v>
       </c>
       <c r="E3">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IV квартал 2019</t>
+          <t>IV квартал 2020</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.018</v>
+        <v>0.013</v>
       </c>
       <c r="C4">
         <v>0.013</v>
@@ -438,26 +438,26 @@
         <v>0.016</v>
       </c>
       <c r="E4">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>I квартал 2020</t>
+          <t>I квартал 2021</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.018</v>
+        <v>0.012</v>
       </c>
       <c r="C5">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
       <c r="D5">
         <v>0.016</v>
       </c>
       <c r="E5">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
     </row>
   </sheetData>
